--- a/TRenesasAll_105H/IC_stock.xlsx
+++ b/TRenesasAll_105H/IC_stock.xlsx
@@ -1,46 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/TaskModel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72654562-9F6C-B24A-9C10-B84720FADFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTUwQkdHOA==" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTUwQkdJ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTUwUEZHSQ==" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTUwUEZHSTg=" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTUwUEZJ" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTY2QkdH" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTY2QlFH" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTY2UEZH" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDJTMTY2UEZHOA==" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkc=" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkc4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdH" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdHOA==" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdHSQ==" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdHSTg=" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdJ" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQkdJOA==" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlE=" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlE4" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlFH" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlFHSQ==" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlFHSTg=" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlFJ" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzQlFJOA==" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzUEY=" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzUEZHOA==" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzUEZHSQ==" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTMzUEZHSTg=" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQkc=" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQkc4" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQkdHOA==" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQkdHSTg=" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQkdJ" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlE=" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlE4" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlFH" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlFHOA==" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlFJ" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwQlFJOA==" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwUEY=" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwUEZH" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwUEZHSQ==" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwUEZHSTg=" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTUwUEZJ" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2QlE=" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2QlE4" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2QlFH" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2QlFHOA==" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEY=" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEY4" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEZH" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEZHOA==" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEZHSQ==" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNTMTY2UEZHSTg=" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNaNVMxNjZQRkc=" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNaUzEzM1BG" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc2MDNaUzEzM1BGRw==" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCRw==" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCR0c=" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCR0c4" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCR0dJ" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCR0dJOA==" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUQ==" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUTg=" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUUc=" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUUc4" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUUdJ" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVCUUdJOA==" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVQRkc=" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVQRkc4" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVQRkdJ" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTNzVQRkdJOA==" sheetId="73" state="visible" r:id="rId73"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCRw==" sheetId="74" state="visible" r:id="rId74"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCRzg=" sheetId="75" state="visible" r:id="rId75"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCR0c=" sheetId="76" state="visible" r:id="rId76"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCR0c4" sheetId="77" state="visible" r:id="rId77"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCR0dJ" sheetId="78" state="visible" r:id="rId78"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCR0dJOA==" sheetId="79" state="visible" r:id="rId79"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCUQ==" sheetId="80" state="visible" r:id="rId80"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCUTg=" sheetId="81" state="visible" r:id="rId81"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCUUc=" sheetId="82" state="visible" r:id="rId82"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NzFWNjc3MDNTODBCUUc4" sheetId="83" state="visible" r:id="rId83"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +135,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,8 +496,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
@@ -370,7 +509,1768 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>鸿盛利科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>71V67703S75BQG</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>鸿盛利科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>71V67703S75BQG</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>鸿盛利科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>71V67703S75PFG8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市南方天信科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71V67703S75PFG8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>鸿盛利科技（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>71V67703S75PFG8</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>深圳市南方天信科技有限公司</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>notICCP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SSCP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71V67703S75PFG8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>notSpotRanking</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>notHotSell</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>